--- a/biology/Botanique/Eragrostis/Eragrostis.xlsx
+++ b/biology/Botanique/Eragrostis/Eragrostis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eragrostis (éragrostide) est un genre de plantes monocotylédones de la famille des Poaceae (graminées), sous-famille des Chloridoideae, à répartition cosmopolite. Le genre comprend environ 350 espèces.
 Ce sont des plantes herbacées, rarement ligneuses, généralement annuelles, certaines vivaces, poussant en touffes (plantes cespiteuses), qui croissent dans les zones perturbées et les habitats ouverts sur sols pauvres ou sablonneux. Sur le plan physiologique, ce sont des plantes à photosynthèse en C4.
